--- a/Sharpe das Estratégias/s1T.xlsx
+++ b/Sharpe das Estratégias/s1T.xlsx
@@ -1,21 +1,236 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takes\Documents\Insper\Data\Projeto Fin\GitHub\Data_Fin_2021.1\Sharpe das Estratégias\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28536054-A1E6-4076-B6B6-F7A96D7A58FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+  <si>
+    <t>abev3</t>
+  </si>
+  <si>
+    <t>ações</t>
+  </si>
+  <si>
+    <t>alimentos</t>
+  </si>
+  <si>
+    <t>ambev</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>bacen</t>
+  </si>
+  <si>
+    <t>banco</t>
+  </si>
+  <si>
+    <t>bbdc4</t>
+  </si>
+  <si>
+    <t>bitcoin</t>
+  </si>
+  <si>
+    <t>bolsa</t>
+  </si>
+  <si>
+    <t>bradesco</t>
+  </si>
+  <si>
+    <t>bvsp</t>
+  </si>
+  <si>
+    <t>cerveja</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>cor</t>
+  </si>
+  <si>
+    <t>corretora</t>
+  </si>
+  <si>
+    <t>credito</t>
+  </si>
+  <si>
+    <t>crise</t>
+  </si>
+  <si>
+    <t>derivativos</t>
+  </si>
+  <si>
+    <t>desemprego</t>
+  </si>
+  <si>
+    <t>dinheiro</t>
+  </si>
+  <si>
+    <t>divida</t>
+  </si>
+  <si>
+    <t>dividendos</t>
+  </si>
+  <si>
+    <t>dolar</t>
+  </si>
+  <si>
+    <t>economia</t>
+  </si>
+  <si>
+    <t>empresa</t>
+  </si>
+  <si>
+    <t>estagio</t>
+  </si>
+  <si>
+    <t>ferro</t>
+  </si>
+  <si>
+    <t>financas</t>
+  </si>
+  <si>
+    <t>fundos</t>
+  </si>
+  <si>
+    <t>gado</t>
+  </si>
+  <si>
+    <t>gasolina</t>
+  </si>
+  <si>
+    <t>ibovespa</t>
+  </si>
+  <si>
+    <t>inflacao</t>
+  </si>
+  <si>
+    <t>investimento</t>
+  </si>
+  <si>
+    <t>investir</t>
+  </si>
+  <si>
+    <t>itau</t>
+  </si>
+  <si>
+    <t>itub4</t>
+  </si>
+  <si>
+    <t>jbs</t>
+  </si>
+  <si>
+    <t>jbss3</t>
+  </si>
+  <si>
+    <t>magazine</t>
+  </si>
+  <si>
+    <t>mercado</t>
+  </si>
+  <si>
+    <t>mglu3</t>
+  </si>
+  <si>
+    <t>mineraca</t>
+  </si>
+  <si>
+    <t>petr4</t>
+  </si>
+  <si>
+    <t>petrobras</t>
+  </si>
+  <si>
+    <t>petroleo</t>
+  </si>
+  <si>
+    <t>politica</t>
+  </si>
+  <si>
+    <t>portifolio</t>
+  </si>
+  <si>
+    <t>renda</t>
+  </si>
+  <si>
+    <t>restaurante</t>
+  </si>
+  <si>
+    <t>selic</t>
+  </si>
+  <si>
+    <t>titulos</t>
+  </si>
+  <si>
+    <t>vale</t>
+  </si>
+  <si>
+    <t>vale3</t>
+  </si>
+  <si>
+    <t>viajar</t>
+  </si>
+  <si>
+    <t>vvar3</t>
+  </si>
+  <si>
+    <t>xp</t>
+  </si>
+  <si>
+    <t>PETR4 BS Equity</t>
+  </si>
+  <si>
+    <t>VALE3 BS Equity</t>
+  </si>
+  <si>
+    <t>BBDC4 BS Equity</t>
+  </si>
+  <si>
+    <t>ITUB4 BS Equity</t>
+  </si>
+  <si>
+    <t>MGLU3 BS Equity</t>
+  </si>
+  <si>
+    <t>B3SA3 BS Equity</t>
+  </si>
+  <si>
+    <t>VVAR3 BS Equity</t>
+  </si>
+  <si>
+    <t>JBSS3 BS Equity</t>
+  </si>
+  <si>
+    <t>ABEV3 BS Equity</t>
+  </si>
+  <si>
+    <t>^BVSP</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -24,12 +239,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -40,7 +253,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -49,17 +262,30 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -67,10 +293,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -78,6 +307,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -124,7 +361,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -156,9 +393,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,6 +445,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -365,780 +638,782 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:59">
-      <c r="B1" s="1">
+    <row r="1" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="1">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="1">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="1">
+      <c r="AV1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="1">
+      <c r="AW1" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="1">
+      <c r="AX1" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="1">
+      <c r="AY1" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="1">
+      <c r="AZ1" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="1">
+      <c r="BA1" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="1">
+      <c r="BB1" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="1">
+      <c r="BC1" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" s="1">
+      <c r="BD1" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="1">
+      <c r="BE1" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" s="1">
+      <c r="BF1" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" s="1">
+      <c r="BG1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:59">
-      <c r="A2" s="1">
-        <v>0</v>
+    <row r="2" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B2">
-        <v>0.06647569669033654</v>
+        <v>6.6475696690336539E-2</v>
       </c>
       <c r="C2">
-        <v>0.705884712575414</v>
+        <v>0.70588471257541396</v>
       </c>
       <c r="D2">
-        <v>0.3069881383195799</v>
+        <v>0.30698813831957988</v>
       </c>
       <c r="E2">
-        <v>1.264358981904098</v>
+        <v>1.2643589819040979</v>
       </c>
       <c r="F2">
         <v>0.6497126128598123</v>
       </c>
       <c r="G2">
-        <v>0.5974990555534547</v>
+        <v>0.59749905555345473</v>
       </c>
       <c r="H2">
-        <v>-0.1510719041105285</v>
+        <v>-0.15107190411052851</v>
       </c>
       <c r="I2">
-        <v>0.292810421080017</v>
+        <v>0.29281042108001698</v>
       </c>
       <c r="J2">
-        <v>0.3209347631429281</v>
+        <v>0.32093476314292813</v>
       </c>
       <c r="K2">
-        <v>1.068445124215545</v>
+        <v>1.0684451242155451</v>
       </c>
       <c r="L2">
-        <v>-0.04129021263715613</v>
+        <v>-4.1290212637156133E-2</v>
       </c>
       <c r="M2">
-        <v>0.4837945425605585</v>
+        <v>0.48379454256055848</v>
       </c>
       <c r="N2">
-        <v>-0.1614980321930083</v>
+        <v>-0.16149803219300829</v>
       </c>
       <c r="O2">
-        <v>0.7077086142621508</v>
+        <v>0.70770861426215081</v>
       </c>
       <c r="P2">
-        <v>-0.2790134489195132</v>
+        <v>-0.27901344891951319</v>
       </c>
       <c r="Q2">
-        <v>0.2935594333915829</v>
+        <v>0.29355943339158291</v>
       </c>
       <c r="R2">
-        <v>0.8519860865095716</v>
+        <v>0.85198608650957164</v>
       </c>
       <c r="S2">
-        <v>0.2536042174655587</v>
+        <v>0.25360421746555872</v>
       </c>
       <c r="T2">
         <v>0.2278357303320683</v>
       </c>
       <c r="U2">
-        <v>0.2931365399991661</v>
+        <v>0.29313653999916611</v>
       </c>
       <c r="V2">
-        <v>0.5241166476903334</v>
+        <v>0.52411664769033339</v>
       </c>
       <c r="W2">
         <v>0.8323439468583026</v>
       </c>
       <c r="X2">
-        <v>0.04848456091620833</v>
+        <v>4.8484560916208327E-2</v>
       </c>
       <c r="Y2">
-        <v>0.585541153293507</v>
+        <v>0.58554115329350698</v>
       </c>
       <c r="Z2">
-        <v>0.166322436141927</v>
+        <v>0.16632243614192699</v>
       </c>
       <c r="AA2">
         <v>0.9331668718351942</v>
       </c>
       <c r="AB2">
-        <v>0.5172861524861221</v>
+        <v>0.51728615248612209</v>
       </c>
       <c r="AC2">
         <v>-0.1408327465769309</v>
       </c>
       <c r="AD2">
-        <v>0.4487819539754205</v>
+        <v>0.44878195397542048</v>
       </c>
       <c r="AE2">
-        <v>0.0005374271409441432</v>
+        <v>5.3742714094414323E-4</v>
       </c>
       <c r="AF2">
-        <v>-0.3067636656991773</v>
+        <v>-0.30676366569917729</v>
       </c>
       <c r="AG2">
-        <v>0.7706116653247472</v>
+        <v>0.77061166532474723</v>
       </c>
       <c r="AH2">
-        <v>0.242155728764384</v>
+        <v>0.24215572876438399</v>
       </c>
       <c r="AI2">
-        <v>1.062587055527258</v>
+        <v>1.0625870555272581</v>
       </c>
       <c r="AJ2">
-        <v>0.4689945853476025</v>
+        <v>0.46899458534760252</v>
       </c>
       <c r="AK2">
-        <v>0.3413393517455393</v>
+        <v>0.34133935174553931</v>
       </c>
       <c r="AL2">
-        <v>0.1691324851197897</v>
+        <v>0.16913248511978971</v>
       </c>
       <c r="AM2">
         <v>1.096881049173609</v>
       </c>
       <c r="AN2">
-        <v>1.089208641464762</v>
+        <v>1.0892086414647619</v>
       </c>
       <c r="AO2">
-        <v>1.277788509390038</v>
+        <v>1.2777885093900381</v>
       </c>
       <c r="AP2">
-        <v>0.4877968939359777</v>
+        <v>0.48779689393597769</v>
       </c>
       <c r="AQ2">
-        <v>-0.4704242643754035</v>
+        <v>-0.47042426437540352</v>
       </c>
       <c r="AR2">
-        <v>0.2545422383540685</v>
+        <v>0.25454223835406847</v>
       </c>
       <c r="AS2">
         <v>1.189232586995322</v>
       </c>
       <c r="AT2">
-        <v>0.5279498604841972</v>
+        <v>0.52794986048419723</v>
       </c>
       <c r="AU2">
-        <v>0.618094212042665</v>
+        <v>0.61809421204266501</v>
       </c>
       <c r="AV2">
-        <v>0.4506670577082048</v>
+        <v>0.45066705770820481</v>
       </c>
       <c r="AW2">
-        <v>0.1454622343964165</v>
+        <v>0.14546223439641651</v>
       </c>
       <c r="AX2">
-        <v>0.4192244790821966</v>
+        <v>0.41922447908219662</v>
       </c>
       <c r="AY2">
-        <v>0.7619363270338015</v>
+        <v>0.76193632703380154</v>
       </c>
       <c r="AZ2">
         <v>0.5227486140755333</v>
       </c>
       <c r="BA2">
-        <v>0.871686996243736</v>
+        <v>0.87168699624373602</v>
       </c>
       <c r="BB2">
-        <v>0.6293914020719515</v>
+        <v>0.62939140207195154</v>
       </c>
       <c r="BC2">
-        <v>0.4031082935306403</v>
+        <v>0.40310829353064032</v>
       </c>
       <c r="BD2">
-        <v>0.003197235461719966</v>
+        <v>3.1972354617199662E-3</v>
       </c>
       <c r="BE2">
-        <v>0.5750299483627275</v>
+        <v>0.57502994836272747</v>
       </c>
       <c r="BF2">
-        <v>0.7621920388581346</v>
+        <v>0.76219203885813458</v>
       </c>
       <c r="BG2">
-        <v>0.6361618550366142</v>
+        <v>0.63616185503661415</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
-      <c r="A3" s="1">
-        <v>1</v>
+    <row r="3" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B3">
         <v>0.2311714913455907</v>
       </c>
       <c r="C3">
-        <v>0.04889235780492353</v>
+        <v>4.8892357804923528E-2</v>
       </c>
       <c r="D3">
-        <v>0.471412013853554</v>
+        <v>0.47141201385355402</v>
       </c>
       <c r="E3">
         <v>0.8710857522344686</v>
       </c>
       <c r="F3">
-        <v>-0.3890391497338324</v>
+        <v>-0.38903914973383241</v>
       </c>
       <c r="G3">
-        <v>0.04259247879283128</v>
+        <v>4.2592478792831283E-2</v>
       </c>
       <c r="H3">
-        <v>0.06924090388043787</v>
+        <v>6.9240903880437868E-2</v>
       </c>
       <c r="I3">
-        <v>0.02941823488994216</v>
+        <v>2.941823488994216E-2</v>
       </c>
       <c r="J3">
-        <v>0.4828773156058049</v>
+        <v>0.48287731560580488</v>
       </c>
       <c r="K3">
-        <v>0.2609641008626941</v>
+        <v>0.26096410086269411</v>
       </c>
       <c r="L3">
-        <v>0.774177267081947</v>
+        <v>0.77417726708194701</v>
       </c>
       <c r="M3">
-        <v>0.5381175499712748</v>
+        <v>0.53811754997127481</v>
       </c>
       <c r="N3">
-        <v>0.4517377838067018</v>
+        <v>0.45173778380670182</v>
       </c>
       <c r="O3">
-        <v>1.169270172211968</v>
+        <v>1.1692701722119681</v>
       </c>
       <c r="P3">
-        <v>-0.3305053917040263</v>
+        <v>-0.33050539170402632</v>
       </c>
       <c r="Q3">
-        <v>-0.7691697435588697</v>
+        <v>-0.76916974355886969</v>
       </c>
       <c r="R3">
-        <v>-0.6383963231239798</v>
+        <v>-0.63839632312397976</v>
       </c>
       <c r="S3">
-        <v>-0.7632312356436878</v>
+        <v>-0.76323123564368778</v>
       </c>
       <c r="T3">
-        <v>0.5614875458938398</v>
+        <v>0.56148754589383976</v>
       </c>
       <c r="U3">
-        <v>-0.04212466368896391</v>
+        <v>-4.2124663688963913E-2</v>
       </c>
       <c r="V3">
-        <v>-0.1215664983631951</v>
+        <v>-0.12156649836319509</v>
       </c>
       <c r="W3">
-        <v>0.06740969865607165</v>
+        <v>6.7409698656071645E-2</v>
       </c>
       <c r="X3">
-        <v>-0.4402105999258847</v>
+        <v>-0.44021059992588468</v>
       </c>
       <c r="Y3">
-        <v>0.15937862843765</v>
+        <v>0.15937862843764999</v>
       </c>
       <c r="Z3">
-        <v>-0.2860868611344551</v>
+        <v>-0.28608686113445508</v>
       </c>
       <c r="AA3">
-        <v>1.042160888821544</v>
+        <v>1.0421608888215439</v>
       </c>
       <c r="AB3">
         <v>1.056563066877136</v>
       </c>
       <c r="AC3">
-        <v>-0.8493473204409175</v>
+        <v>-0.84934732044091754</v>
       </c>
       <c r="AD3">
         <v>0.1084869019381004</v>
       </c>
       <c r="AE3">
-        <v>-0.01851826869639893</v>
+        <v>-1.8518268696398929E-2</v>
       </c>
       <c r="AF3">
-        <v>-0.2373495804454606</v>
+        <v>-0.23734958044546059</v>
       </c>
       <c r="AG3">
-        <v>0.7380443159492441</v>
+        <v>0.73804431594924413</v>
       </c>
       <c r="AH3">
-        <v>0.09309900056122061</v>
+        <v>9.3099000561220613E-2</v>
       </c>
       <c r="AI3">
         <v>1.023649520569454</v>
       </c>
       <c r="AJ3">
-        <v>0.563207439387554</v>
+        <v>0.56320743938755402</v>
       </c>
       <c r="AK3">
-        <v>0.07101832309978891</v>
+        <v>7.1018323099788908E-2</v>
       </c>
       <c r="AL3">
-        <v>0.9893281309643243</v>
+        <v>0.98932813096432426</v>
       </c>
       <c r="AM3">
-        <v>0.1437307000526644</v>
+        <v>0.14373070005266439</v>
       </c>
       <c r="AN3">
         <v>0.9873588427329123</v>
       </c>
       <c r="AO3">
-        <v>0.7152573420035995</v>
+        <v>0.71525734200359947</v>
       </c>
       <c r="AP3">
-        <v>-0.2195482739785252</v>
+        <v>-0.21954827397852519</v>
       </c>
       <c r="AQ3">
-        <v>-0.4158650697245362</v>
+        <v>-0.41586506972453618</v>
       </c>
       <c r="AR3">
-        <v>-0.3026405101678526</v>
+        <v>-0.30264051016785259</v>
       </c>
       <c r="AS3">
-        <v>0.346207074227753</v>
+        <v>0.34620707422775299</v>
       </c>
       <c r="AT3">
-        <v>0.221892494891288</v>
+        <v>0.22189249489128801</v>
       </c>
       <c r="AU3">
-        <v>0.2573476955687322</v>
+        <v>0.25734769556873222</v>
       </c>
       <c r="AV3">
-        <v>0.7255052929076695</v>
+        <v>0.72550529290766952</v>
       </c>
       <c r="AW3">
-        <v>0.5979032866868177</v>
+        <v>0.59790328668681769</v>
       </c>
       <c r="AX3">
-        <v>0.0235526809269157</v>
+        <v>2.35526809269157E-2</v>
       </c>
       <c r="AY3">
-        <v>0.6827627744377958</v>
+        <v>0.68276277443779576</v>
       </c>
       <c r="AZ3">
         <v>0.5736017009029617</v>
       </c>
       <c r="BA3">
-        <v>0.9874510230927622</v>
+        <v>0.98745102309276223</v>
       </c>
       <c r="BB3">
         <v>0.4018118014969892</v>
       </c>
       <c r="BC3">
-        <v>0.6881242749537104</v>
+        <v>0.68812427495371042</v>
       </c>
       <c r="BD3">
-        <v>-0.08532994929519072</v>
+        <v>-8.5329949295190721E-2</v>
       </c>
       <c r="BE3">
-        <v>0.9618516399835989</v>
+        <v>0.96185163998359891</v>
       </c>
       <c r="BF3">
-        <v>1.032343382097271</v>
+        <v>1.0323433820972709</v>
       </c>
       <c r="BG3">
-        <v>0.912074411385029</v>
+        <v>0.91207441138502898</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
-      <c r="A4" s="1">
-        <v>2</v>
+    <row r="4" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B4">
-        <v>0.4621966035344963</v>
+        <v>0.46219660353449632</v>
       </c>
       <c r="C4">
-        <v>0.760492355623574</v>
+        <v>0.76049235562357398</v>
       </c>
       <c r="D4">
         <v>1.02355753925642</v>
       </c>
       <c r="E4">
-        <v>1.659784968409543</v>
+        <v>1.6597849684095429</v>
       </c>
       <c r="F4">
         <v>0.4040237291762237</v>
       </c>
       <c r="G4">
-        <v>1.007816984486558</v>
+        <v>1.0078169844865581</v>
       </c>
       <c r="H4">
-        <v>0.001537019882368632</v>
+        <v>1.5370198823686321E-3</v>
       </c>
       <c r="I4">
-        <v>0.3417072966753492</v>
+        <v>0.34170729667534921</v>
       </c>
       <c r="J4">
-        <v>0.4728819328721032</v>
+        <v>0.47288193287210317</v>
       </c>
       <c r="K4">
-        <v>0.9645946313076905</v>
+        <v>0.96459463130769052</v>
       </c>
       <c r="L4">
-        <v>-0.01366692814102959</v>
+        <v>-1.3666928141029591E-2</v>
       </c>
       <c r="M4">
-        <v>0.5987646489214792</v>
+        <v>0.59876464892147918</v>
       </c>
       <c r="N4">
-        <v>-0.371161649077607</v>
+        <v>-0.37116164907760701</v>
       </c>
       <c r="O4">
-        <v>0.5785236961481283</v>
+        <v>0.57852369614812826</v>
       </c>
       <c r="P4">
-        <v>-0.2423017353562756</v>
+        <v>-0.24230173535627561</v>
       </c>
       <c r="Q4">
-        <v>0.01571633118318904</v>
+        <v>1.571633118318904E-2</v>
       </c>
       <c r="R4">
         <v>0.8018479468316132</v>
       </c>
       <c r="S4">
-        <v>0.4139719855498007</v>
+        <v>0.41397198554980069</v>
       </c>
       <c r="T4">
-        <v>0.0734899321320152</v>
+        <v>7.3489932132015198E-2</v>
       </c>
       <c r="U4">
-        <v>0.5464822969480571</v>
+        <v>0.54648229694805706</v>
       </c>
       <c r="V4">
-        <v>0.2955239591500095</v>
+        <v>0.29552395915000951</v>
       </c>
       <c r="W4">
-        <v>0.3902369960691103</v>
+        <v>0.39023699606911028</v>
       </c>
       <c r="X4">
-        <v>0.2781279372265497</v>
+        <v>0.27812793722654972</v>
       </c>
       <c r="Y4">
-        <v>0.5225820823860046</v>
+        <v>0.52258208238600456</v>
       </c>
       <c r="Z4">
         <v>0.4985888865117013</v>
       </c>
       <c r="AA4">
-        <v>0.9805597017460356</v>
+        <v>0.98055970174603557</v>
       </c>
       <c r="AB4">
-        <v>0.6756800071166135</v>
+        <v>0.67568000711661347</v>
       </c>
       <c r="AC4">
         <v>-0.6282537226470345</v>
       </c>
       <c r="AD4">
-        <v>0.02728496333437282</v>
+        <v>2.728496333437282E-2</v>
       </c>
       <c r="AE4">
-        <v>0.1020345999490345</v>
+        <v>0.10203459994903449</v>
       </c>
       <c r="AF4">
-        <v>-0.1576842784033328</v>
+        <v>-0.15768427840333279</v>
       </c>
       <c r="AG4">
         <v>0.1438817852507453</v>
       </c>
       <c r="AH4">
-        <v>0.2080934945449976</v>
+        <v>0.20809349454499759</v>
       </c>
       <c r="AI4">
         <v>0.753757275315174</v>
       </c>
       <c r="AJ4">
-        <v>0.5002346629907202</v>
+        <v>0.50023466299072017</v>
       </c>
       <c r="AK4">
-        <v>0.3816981032092605</v>
+        <v>0.38169810320926051</v>
       </c>
       <c r="AL4">
-        <v>0.1413804493189635</v>
+        <v>0.14138044931896351</v>
       </c>
       <c r="AM4">
-        <v>0.9634986342215004</v>
+        <v>0.96349863422150039</v>
       </c>
       <c r="AN4">
-        <v>0.8220255069953353</v>
+        <v>0.82202550699533528</v>
       </c>
       <c r="AO4">
-        <v>0.941995156040539</v>
+        <v>0.94199515604053896</v>
       </c>
       <c r="AP4">
-        <v>0.553053237952197</v>
+        <v>0.55305323795219696</v>
       </c>
       <c r="AQ4">
-        <v>-0.5184306072207319</v>
+        <v>-0.51843060722073186</v>
       </c>
       <c r="AR4">
-        <v>-0.00898344541611204</v>
+        <v>-8.9834454161120403E-3</v>
       </c>
       <c r="AS4">
-        <v>1.027140370671317</v>
+        <v>1.0271403706713169</v>
       </c>
       <c r="AT4">
-        <v>0.2730131267877609</v>
+        <v>0.27301312678776091</v>
       </c>
       <c r="AU4">
-        <v>0.7192214771956997</v>
+        <v>0.71922147719569973</v>
       </c>
       <c r="AV4">
-        <v>1.148999588982594</v>
+        <v>1.1489995889825939</v>
       </c>
       <c r="AW4">
-        <v>0.05827822143758184</v>
+        <v>5.8278221437581837E-2</v>
       </c>
       <c r="AX4">
-        <v>0.5240984664913058</v>
+        <v>0.52409846649130576</v>
       </c>
       <c r="AY4">
-        <v>0.8435972285291591</v>
+        <v>0.84359722852915908</v>
       </c>
       <c r="AZ4">
-        <v>0.003830923752984133</v>
+        <v>3.8309237529841329E-3</v>
       </c>
       <c r="BA4">
-        <v>0.7830368649620335</v>
+        <v>0.78303686496203351</v>
       </c>
       <c r="BB4">
-        <v>0.4401351922953093</v>
+        <v>0.44013519229530929</v>
       </c>
       <c r="BC4">
         <v>0.1514107950535265</v>
       </c>
       <c r="BD4">
-        <v>0.01309428280897369</v>
+        <v>1.3094282808973691E-2</v>
       </c>
       <c r="BE4">
-        <v>0.279732626682395</v>
+        <v>0.27973262668239501</v>
       </c>
       <c r="BF4">
-        <v>0.6414962563293539</v>
+        <v>0.64149625632935392</v>
       </c>
       <c r="BG4">
-        <v>0.6580318015728291</v>
+        <v>0.65803180157282914</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
-      <c r="A5" s="1">
-        <v>3</v>
+    <row r="5" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B5">
-        <v>0.2499452179783599</v>
+        <v>0.24994521797835989</v>
       </c>
       <c r="C5">
-        <v>0.9888113070625378</v>
+        <v>0.98881130706253784</v>
       </c>
       <c r="D5">
-        <v>0.9606552392967136</v>
+        <v>0.96065523929671359</v>
       </c>
       <c r="E5">
-        <v>1.679777484483805</v>
+        <v>1.6797774844838049</v>
       </c>
       <c r="F5">
-        <v>0.3408882157335039</v>
+        <v>0.34088821573350392</v>
       </c>
       <c r="G5">
-        <v>0.7183825337802621</v>
+        <v>0.71838253378026207</v>
       </c>
       <c r="H5">
-        <v>-0.07552678543758846</v>
+        <v>-7.5526785437588465E-2</v>
       </c>
       <c r="I5">
-        <v>0.333639982363732</v>
+        <v>0.33363998236373199</v>
       </c>
       <c r="J5">
-        <v>0.1104185097817695</v>
+        <v>0.11041850978176949</v>
       </c>
       <c r="K5">
-        <v>0.9665156483424427</v>
+        <v>0.96651564834244275</v>
       </c>
       <c r="L5">
-        <v>-0.1203452727045344</v>
+        <v>-0.12034527270453441</v>
       </c>
       <c r="M5">
-        <v>0.6103372661168213</v>
+        <v>0.61033726611682126</v>
       </c>
       <c r="N5">
-        <v>-0.1365540925253078</v>
+        <v>-0.13655409252530781</v>
       </c>
       <c r="O5">
-        <v>0.8204118778393765</v>
+        <v>0.82041187783937652</v>
       </c>
       <c r="P5">
-        <v>0.07998093288066642</v>
+        <v>7.9980932880666419E-2</v>
       </c>
       <c r="Q5">
         <v>-0.1204376931905432</v>
       </c>
       <c r="R5">
-        <v>0.7626467109926288</v>
+        <v>0.76264671099262882</v>
       </c>
       <c r="S5">
         <v>0.4399981848326957</v>
@@ -1147,115 +1422,115 @@
         <v>0.1128863957745215</v>
       </c>
       <c r="U5">
-        <v>0.6856531904108771</v>
+        <v>0.68565319041087713</v>
       </c>
       <c r="V5">
-        <v>0.4101841670688141</v>
+        <v>0.41018416706881411</v>
       </c>
       <c r="W5">
-        <v>0.232764362820179</v>
+        <v>0.23276436282017901</v>
       </c>
       <c r="X5">
-        <v>0.4747069952313135</v>
+        <v>0.47470699523131349</v>
       </c>
       <c r="Y5">
-        <v>0.5739779018702167</v>
+        <v>0.57397790187021669</v>
       </c>
       <c r="Z5">
-        <v>0.6650115176694862</v>
+        <v>0.66501151766948619</v>
       </c>
       <c r="AA5">
-        <v>0.9558635030808276</v>
+        <v>0.95586350308082757</v>
       </c>
       <c r="AB5">
         <v>0.5314889842714835</v>
       </c>
       <c r="AC5">
-        <v>-0.4994016391145442</v>
+        <v>-0.49940163911454422</v>
       </c>
       <c r="AD5">
-        <v>0.249720870198133</v>
+        <v>0.24972087019813299</v>
       </c>
       <c r="AE5">
         <v>0.1365876444794217</v>
       </c>
       <c r="AF5">
-        <v>-0.09712638182430082</v>
+        <v>-9.712638182430082E-2</v>
       </c>
       <c r="AG5">
-        <v>0.04883963700014309</v>
+        <v>4.8839637000143092E-2</v>
       </c>
       <c r="AH5">
-        <v>0.4240230537024879</v>
+        <v>0.42402305370248788</v>
       </c>
       <c r="AI5">
-        <v>0.9666486793835403</v>
+        <v>0.96664867938354027</v>
       </c>
       <c r="AJ5">
-        <v>0.3249716225103196</v>
+        <v>0.32497162251031958</v>
       </c>
       <c r="AK5">
-        <v>0.4108855750172449</v>
+        <v>0.41088557501724488</v>
       </c>
       <c r="AL5">
-        <v>-0.0321720356887966</v>
+        <v>-3.2172035688796598E-2</v>
       </c>
       <c r="AM5">
-        <v>0.678338416915143</v>
+        <v>0.67833841691514296</v>
       </c>
       <c r="AN5">
-        <v>0.6484159169659053</v>
+        <v>0.64841591696590528</v>
       </c>
       <c r="AO5">
-        <v>0.7899756454725417</v>
+        <v>0.78997564547254173</v>
       </c>
       <c r="AP5">
-        <v>0.5030426501980043</v>
+        <v>0.50304265019800432</v>
       </c>
       <c r="AQ5">
-        <v>-0.5803859399380524</v>
+        <v>-0.58038593993805243</v>
       </c>
       <c r="AR5">
-        <v>0.07991863334004023</v>
+        <v>7.9918633340040235E-2</v>
       </c>
       <c r="AS5">
         <v>1.440798178769181</v>
       </c>
       <c r="AT5">
-        <v>0.556995162072796</v>
+        <v>0.55699516207279598</v>
       </c>
       <c r="AU5">
-        <v>0.6934677905559872</v>
+        <v>0.69346779055598717</v>
       </c>
       <c r="AV5">
-        <v>0.9913099570006106</v>
+        <v>0.99130995700061064</v>
       </c>
       <c r="AW5">
-        <v>0.0876066943301522</v>
+        <v>8.7606694330152196E-2</v>
       </c>
       <c r="AX5">
-        <v>0.3333502949344644</v>
+        <v>0.33335029493446439</v>
       </c>
       <c r="AY5">
-        <v>0.8070097501570376</v>
+        <v>0.80700975015703758</v>
       </c>
       <c r="AZ5">
-        <v>-0.2369926901273341</v>
+        <v>-0.23699269012733409</v>
       </c>
       <c r="BA5">
-        <v>0.6336586157023341</v>
+        <v>0.63365861570233406</v>
       </c>
       <c r="BB5">
-        <v>0.6373128225535417</v>
+        <v>0.63731282255354171</v>
       </c>
       <c r="BC5">
-        <v>-0.0329647043632289</v>
+        <v>-3.2964704363228903E-2</v>
       </c>
       <c r="BD5">
-        <v>-0.01913563272143809</v>
+        <v>-1.9135632721438089E-2</v>
       </c>
       <c r="BE5">
-        <v>0.3474479061131976</v>
+        <v>0.34744790611319759</v>
       </c>
       <c r="BF5">
         <v>0.4300027142397706</v>
@@ -1264,12 +1539,12 @@
         <v>0.6351493976266237</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
-      <c r="A6" s="1">
-        <v>4</v>
+    <row r="6" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B6">
-        <v>0.1743213761250283</v>
+        <v>0.17432137612502829</v>
       </c>
       <c r="C6">
         <v>0.1522268321446999</v>
@@ -1278,139 +1553,139 @@
         <v>0.1325456222921664</v>
       </c>
       <c r="E6">
-        <v>1.549126526379839</v>
+        <v>1.5491265263798391</v>
       </c>
       <c r="F6">
         <v>-0.5901239261274106</v>
       </c>
       <c r="G6">
-        <v>0.93032916664716</v>
+        <v>0.93032916664716003</v>
       </c>
       <c r="H6">
-        <v>0.7204483562895997</v>
+        <v>0.72044835628959969</v>
       </c>
       <c r="I6">
-        <v>0.1504180634131081</v>
+        <v>0.15041806341310809</v>
       </c>
       <c r="J6">
-        <v>-0.3048898054996143</v>
+        <v>-0.30488980549961431</v>
       </c>
       <c r="K6">
         <v>0.1588535273483675</v>
       </c>
       <c r="L6">
-        <v>1.033303682972125</v>
+        <v>1.0333036829721249</v>
       </c>
       <c r="M6">
         <v>2.040945020204334</v>
       </c>
       <c r="N6">
-        <v>0.4847769979323985</v>
+        <v>0.48477699793239848</v>
       </c>
       <c r="O6">
-        <v>0.3017577027024977</v>
+        <v>0.30175770270249769</v>
       </c>
       <c r="P6">
-        <v>-0.6654500541665876</v>
+        <v>-0.66545005416658765</v>
       </c>
       <c r="Q6">
-        <v>-0.6563266389986208</v>
+        <v>-0.65632663899862076</v>
       </c>
       <c r="R6">
-        <v>0.5122929890849282</v>
+        <v>0.51229298908492815</v>
       </c>
       <c r="S6">
-        <v>-0.3295015127026734</v>
+        <v>-0.32950151270267342</v>
       </c>
       <c r="T6">
         <v>-0.1181280507306189</v>
       </c>
       <c r="U6">
-        <v>0.549138492521375</v>
+        <v>0.54913849252137503</v>
       </c>
       <c r="V6">
-        <v>0.4432368314007449</v>
+        <v>0.44323683140074488</v>
       </c>
       <c r="W6">
-        <v>0.1920563094225644</v>
+        <v>0.19205630942256441</v>
       </c>
       <c r="X6">
-        <v>-0.6086866108189051</v>
+        <v>-0.60868661081890507</v>
       </c>
       <c r="Y6">
-        <v>0.5577495780267583</v>
+        <v>0.55774957802675829</v>
       </c>
       <c r="Z6">
         <v>-0.2080717730271508</v>
       </c>
       <c r="AA6">
-        <v>0.7167807228435064</v>
+        <v>0.71678072284350636</v>
       </c>
       <c r="AB6">
         <v>1.513071028819329</v>
       </c>
       <c r="AC6">
-        <v>-1.525368194271575</v>
+        <v>-1.5253681942715751</v>
       </c>
       <c r="AD6">
-        <v>0.3868092841788491</v>
+        <v>0.38680928417884908</v>
       </c>
       <c r="AE6">
-        <v>0.6539583839601327</v>
+        <v>0.65395838396013273</v>
       </c>
       <c r="AF6">
-        <v>-0.4078786883714964</v>
+        <v>-0.40787868837149638</v>
       </c>
       <c r="AG6">
-        <v>0.09857831314775285</v>
+        <v>9.8578313147752852E-2</v>
       </c>
       <c r="AH6">
-        <v>0.09379180577953862</v>
+        <v>9.379180577953862E-2</v>
       </c>
       <c r="AI6">
-        <v>1.766518566205474</v>
+        <v>1.7665185662054741</v>
       </c>
       <c r="AJ6">
         <v>-0.16264922633393</v>
       </c>
       <c r="AK6">
-        <v>-0.7355901576387101</v>
+        <v>-0.73559015763871005</v>
       </c>
       <c r="AL6">
         <v>1.231257647051573</v>
       </c>
       <c r="AM6">
-        <v>0.3849466516118814</v>
+        <v>0.38494665161188141</v>
       </c>
       <c r="AN6">
-        <v>1.252867174493926</v>
+        <v>1.2528671744939259</v>
       </c>
       <c r="AO6">
-        <v>0.2367710178457554</v>
+        <v>0.23677101784575541</v>
       </c>
       <c r="AP6">
-        <v>-0.2067577209347407</v>
+        <v>-0.20675772093474071</v>
       </c>
       <c r="AQ6">
-        <v>-0.6029617814494641</v>
+        <v>-0.60296178144946411</v>
       </c>
       <c r="AR6">
-        <v>-0.4398757529417979</v>
+        <v>-0.43987575294179793</v>
       </c>
       <c r="AS6">
-        <v>0.7791328924131053</v>
+        <v>0.77913289241310535</v>
       </c>
       <c r="AT6">
-        <v>0.6415007371495695</v>
+        <v>0.64150073714956946</v>
       </c>
       <c r="AU6">
         <v>1.165194466151108</v>
       </c>
       <c r="AV6">
-        <v>0.6495773049958222</v>
+        <v>0.64957730499582222</v>
       </c>
       <c r="AW6">
-        <v>0.7561111273876039</v>
+        <v>0.75611112738760389</v>
       </c>
       <c r="AX6">
         <v>1.067924977545216</v>
@@ -1419,22 +1694,22 @@
         <v>1.651748583841544</v>
       </c>
       <c r="AZ6">
-        <v>0.6231514529148959</v>
+        <v>0.62315145291489593</v>
       </c>
       <c r="BA6">
-        <v>0.3251935101092588</v>
+        <v>0.32519351010925879</v>
       </c>
       <c r="BB6">
-        <v>0.3017775106768161</v>
+        <v>0.30177751067681607</v>
       </c>
       <c r="BC6">
-        <v>0.5594082749353425</v>
+        <v>0.55940827493534251</v>
       </c>
       <c r="BD6">
-        <v>0.09791096003863382</v>
+        <v>9.7910960038633824E-2</v>
       </c>
       <c r="BE6">
-        <v>0.8869028626836619</v>
+        <v>0.88690286268366192</v>
       </c>
       <c r="BF6">
         <v>2.142295649737012</v>
@@ -1443,18 +1718,18 @@
         <v>1.063659797274312</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
-      <c r="A7" s="1">
-        <v>5</v>
+    <row r="7" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B7">
-        <v>0.3224544129492485</v>
+        <v>0.32245441294924848</v>
       </c>
       <c r="C7">
-        <v>0.2022734870953087</v>
+        <v>0.20227348709530871</v>
       </c>
       <c r="D7">
-        <v>0.6216931727075715</v>
+        <v>0.62169317270757152</v>
       </c>
       <c r="E7">
         <v>1.600229104066377</v>
@@ -1469,288 +1744,288 @@
         <v>0.1225113446261159</v>
       </c>
       <c r="I7">
-        <v>-0.1444401498395518</v>
+        <v>-0.14444014983955181</v>
       </c>
       <c r="J7">
-        <v>-0.005600981173206244</v>
+        <v>-5.6009811732062442E-3</v>
       </c>
       <c r="K7">
-        <v>0.2189773849465503</v>
+        <v>0.21897738494655031</v>
       </c>
       <c r="L7">
-        <v>0.3041899099682799</v>
+        <v>0.30418990996827988</v>
       </c>
       <c r="M7">
-        <v>0.9936761366141055</v>
+        <v>0.99367613661410548</v>
       </c>
       <c r="N7">
-        <v>-0.09824618167591663</v>
+        <v>-9.824618167591663E-2</v>
       </c>
       <c r="O7">
-        <v>0.1698862055565417</v>
+        <v>0.16988620555654169</v>
       </c>
       <c r="P7">
-        <v>-0.03227350367176887</v>
+        <v>-3.2273503671768872E-2</v>
       </c>
       <c r="Q7">
-        <v>-0.5647303883579066</v>
+        <v>-0.56473038835790657</v>
       </c>
       <c r="R7">
-        <v>0.4105408632903902</v>
+        <v>0.41054086329039019</v>
       </c>
       <c r="S7">
-        <v>0.2346849956917171</v>
+        <v>0.23468499569171711</v>
       </c>
       <c r="T7">
-        <v>0.2349323452214694</v>
+        <v>0.23493234522146941</v>
       </c>
       <c r="U7">
-        <v>0.134192034174051</v>
+        <v>0.13419203417405101</v>
       </c>
       <c r="V7">
-        <v>0.04543033188709876</v>
+        <v>4.543033188709876E-2</v>
       </c>
       <c r="W7">
-        <v>0.6200916879874078</v>
+        <v>0.62009168798740777</v>
       </c>
       <c r="X7">
-        <v>-0.2604600460462186</v>
+        <v>-0.26046004604621859</v>
       </c>
       <c r="Y7">
         <v>0.3064467166062142</v>
       </c>
       <c r="Z7">
-        <v>0.4911380330843064</v>
+        <v>0.49113803308430642</v>
       </c>
       <c r="AA7">
-        <v>0.33743990934663</v>
+        <v>0.33743990934662998</v>
       </c>
       <c r="AB7">
-        <v>0.6716902465412238</v>
+        <v>0.67169024654122378</v>
       </c>
       <c r="AC7">
-        <v>-0.4166622511763119</v>
+        <v>-0.41666225117631189</v>
       </c>
       <c r="AD7">
-        <v>0.0201491336971111</v>
+        <v>2.0149133697111101E-2</v>
       </c>
       <c r="AE7">
-        <v>-0.06067938673759449</v>
+        <v>-6.0679386737594487E-2</v>
       </c>
       <c r="AF7">
-        <v>-0.2856334639583923</v>
+        <v>-0.28563346395839229</v>
       </c>
       <c r="AG7">
-        <v>0.4505427348430067</v>
+        <v>0.45054273484300672</v>
       </c>
       <c r="AH7">
-        <v>-0.001936126743604128</v>
+        <v>-1.936126743604128E-3</v>
       </c>
       <c r="AI7">
-        <v>1.07570598078519</v>
+        <v>1.0757059807851901</v>
       </c>
       <c r="AJ7">
-        <v>-0.3755552207891885</v>
+        <v>-0.37555522078918852</v>
       </c>
       <c r="AK7">
-        <v>-0.2533696004303422</v>
+        <v>-0.25336960043034218</v>
       </c>
       <c r="AL7">
-        <v>0.555018962459381</v>
+        <v>0.55501896245938098</v>
       </c>
       <c r="AM7">
-        <v>0.4694076997965823</v>
+        <v>0.46940769979658231</v>
       </c>
       <c r="AN7">
-        <v>1.164398499187783</v>
+        <v>1.1643984991877829</v>
       </c>
       <c r="AO7">
-        <v>0.3023228455892342</v>
+        <v>0.30232284558923422</v>
       </c>
       <c r="AP7">
-        <v>0.1483892013864919</v>
+        <v>0.14838920138649189</v>
       </c>
       <c r="AQ7">
-        <v>-0.4276379412637134</v>
+        <v>-0.42763794126371341</v>
       </c>
       <c r="AR7">
-        <v>-0.2374168938219252</v>
+        <v>-0.23741689382192521</v>
       </c>
       <c r="AS7">
-        <v>0.7120507927309214</v>
+        <v>0.71205079273092142</v>
       </c>
       <c r="AT7">
-        <v>0.2670519812332933</v>
+        <v>0.26705198123329332</v>
       </c>
       <c r="AU7">
-        <v>0.8945829465763244</v>
+        <v>0.89458294657632442</v>
       </c>
       <c r="AV7">
-        <v>0.6295647683925356</v>
+        <v>0.62956476839253561</v>
       </c>
       <c r="AW7">
-        <v>0.4309154073641845</v>
+        <v>0.43091540736418449</v>
       </c>
       <c r="AX7">
-        <v>0.856134512268457</v>
+        <v>0.85613451226845705</v>
       </c>
       <c r="AY7">
         <v>0.6299493981138321</v>
       </c>
       <c r="AZ7">
-        <v>0.2763116106457623</v>
+        <v>0.27631161064576232</v>
       </c>
       <c r="BA7">
         <v>0.1501722527715468</v>
       </c>
       <c r="BB7">
-        <v>0.5198913202471963</v>
+        <v>0.51989132024719631</v>
       </c>
       <c r="BC7">
-        <v>-0.2772996301617756</v>
+        <v>-0.27729963016177561</v>
       </c>
       <c r="BD7">
-        <v>-0.1291012129825836</v>
+        <v>-0.12910121298258359</v>
       </c>
       <c r="BE7">
-        <v>0.4443138994667089</v>
+        <v>0.44431389946670891</v>
       </c>
       <c r="BF7">
         <v>0.9903263177713042</v>
       </c>
       <c r="BG7">
-        <v>0.3765565736170963</v>
+        <v>0.37655657361709632</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
-      <c r="A8" s="1">
-        <v>6</v>
+    <row r="8" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B8">
-        <v>0.3443054264501889</v>
+        <v>0.34430542645018891</v>
       </c>
       <c r="C8">
         <v>0.6897219500928341</v>
       </c>
       <c r="D8">
-        <v>1.180455802255651</v>
+        <v>1.1804558022556511</v>
       </c>
       <c r="E8">
         <v>1.720609299617968</v>
       </c>
       <c r="F8">
-        <v>0.3203815677276415</v>
+        <v>0.32038156772764148</v>
       </c>
       <c r="G8">
-        <v>1.226985400735994</v>
+        <v>1.2269854007359939</v>
       </c>
       <c r="H8">
-        <v>0.5496298852547535</v>
+        <v>0.54962988525475354</v>
       </c>
       <c r="I8">
-        <v>-0.0415208328385514</v>
+        <v>-4.1520832838551402E-2</v>
       </c>
       <c r="J8">
-        <v>0.410851298103987</v>
+        <v>0.41085129810398702</v>
       </c>
       <c r="K8">
-        <v>0.8527504062521465</v>
+        <v>0.85275040625214649</v>
       </c>
       <c r="L8">
-        <v>0.5370710811330586</v>
+        <v>0.53707108113305857</v>
       </c>
       <c r="M8">
         <v>0.8895298539997869</v>
       </c>
       <c r="N8">
-        <v>0.1436993070096735</v>
+        <v>0.14369930700967351</v>
       </c>
       <c r="O8">
-        <v>0.009645696810631894</v>
+        <v>9.6456968106318937E-3</v>
       </c>
       <c r="P8">
-        <v>-0.4166089514805266</v>
+        <v>-0.41660895148052662</v>
       </c>
       <c r="Q8">
-        <v>-0.008555581099252288</v>
+        <v>-8.5555810992522883E-3</v>
       </c>
       <c r="R8">
-        <v>0.7674522646955795</v>
+        <v>0.76745226469557948</v>
       </c>
       <c r="S8">
-        <v>0.4609604656250734</v>
+        <v>0.46096046562507342</v>
       </c>
       <c r="T8">
-        <v>0.1321425893067067</v>
+        <v>0.13214258930670669</v>
       </c>
       <c r="U8">
-        <v>-0.2632719077802123</v>
+        <v>-0.26327190778021231</v>
       </c>
       <c r="V8">
-        <v>0.2293384418006384</v>
+        <v>0.22933844180063839</v>
       </c>
       <c r="W8">
-        <v>-0.002554605274758302</v>
+        <v>-2.5546052747583022E-3</v>
       </c>
       <c r="X8">
-        <v>0.2031326502583252</v>
+        <v>0.20313265025832519</v>
       </c>
       <c r="Y8">
-        <v>0.1635430333887523</v>
+        <v>0.16354303338875231</v>
       </c>
       <c r="Z8">
-        <v>0.4864556317462805</v>
+        <v>0.48645563174628048</v>
       </c>
       <c r="AA8">
-        <v>0.7157485367346174</v>
+        <v>0.71574853673461736</v>
       </c>
       <c r="AB8">
-        <v>1.256638632530581</v>
+        <v>1.2566386325305809</v>
       </c>
       <c r="AC8">
-        <v>-0.7762259567690761</v>
+        <v>-0.77622595676907613</v>
       </c>
       <c r="AD8">
-        <v>0.1808108207511658</v>
+        <v>0.18081082075116581</v>
       </c>
       <c r="AE8">
-        <v>0.02956500974045963</v>
+        <v>2.9565009740459631E-2</v>
       </c>
       <c r="AF8">
-        <v>-0.809073131348038</v>
+        <v>-0.80907313134803804</v>
       </c>
       <c r="AG8">
-        <v>0.3987192917181003</v>
+        <v>0.39871929171810028</v>
       </c>
       <c r="AH8">
-        <v>0.1548965195729022</v>
+        <v>0.15489651957290221</v>
       </c>
       <c r="AI8">
-        <v>1.528637950534799</v>
+        <v>1.5286379505347989</v>
       </c>
       <c r="AJ8">
         <v>0.1002878504231929</v>
       </c>
       <c r="AK8">
-        <v>0.3510653165305768</v>
+        <v>0.35106531653057682</v>
       </c>
       <c r="AL8">
-        <v>0.8541718690473282</v>
+        <v>0.85417186904732822</v>
       </c>
       <c r="AM8">
-        <v>0.7510215161653779</v>
+        <v>0.75102151616537793</v>
       </c>
       <c r="AN8">
-        <v>0.7506413843379595</v>
+        <v>0.75064138433795946</v>
       </c>
       <c r="AO8">
-        <v>-0.1344197485131494</v>
+        <v>-0.13441974851314939</v>
       </c>
       <c r="AP8">
-        <v>0.3399586010901379</v>
+        <v>0.33995860109013792</v>
       </c>
       <c r="AQ8">
-        <v>-0.8349029751775527</v>
+        <v>-0.83490297517755274</v>
       </c>
       <c r="AR8">
         <v>-0.1775419797946837</v>
@@ -1759,302 +2034,302 @@
         <v>0.1735212492833251</v>
       </c>
       <c r="AT8">
-        <v>0.6981886056923546</v>
+        <v>0.69818860569235464</v>
       </c>
       <c r="AU8">
-        <v>1.295149166106278</v>
+        <v>1.2951491661062779</v>
       </c>
       <c r="AV8">
-        <v>0.3076345249435209</v>
+        <v>0.30763452494352089</v>
       </c>
       <c r="AW8">
-        <v>0.3681711708001428</v>
+        <v>0.36817117080014278</v>
       </c>
       <c r="AX8">
-        <v>0.1725023070701523</v>
+        <v>0.17250230707015229</v>
       </c>
       <c r="AY8">
-        <v>0.8204047549043231</v>
+        <v>0.82040475490432307</v>
       </c>
       <c r="AZ8">
-        <v>0.3204273844638663</v>
+        <v>0.32042738446386632</v>
       </c>
       <c r="BA8">
-        <v>0.5471847626392244</v>
+        <v>0.54718476263922444</v>
       </c>
       <c r="BB8">
-        <v>0.5403732328524987</v>
+        <v>0.54037323285249872</v>
       </c>
       <c r="BC8">
-        <v>0.3809008406637951</v>
+        <v>0.38090084066379509</v>
       </c>
       <c r="BD8">
-        <v>0.6667183856927429</v>
+        <v>0.66671838569274289</v>
       </c>
       <c r="BE8">
-        <v>0.9403464843533652</v>
+        <v>0.94034648435336521</v>
       </c>
       <c r="BF8">
-        <v>0.885503393802851</v>
+        <v>0.88550339380285104</v>
       </c>
       <c r="BG8">
-        <v>0.582657820100586</v>
+        <v>0.58265782010058598</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
-      <c r="A9" s="1">
-        <v>7</v>
+    <row r="9" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B9">
-        <v>-0.2694380602527368</v>
+        <v>-0.26943806025273681</v>
       </c>
       <c r="C9">
-        <v>0.5661824186454846</v>
+        <v>0.56618241864548458</v>
       </c>
       <c r="D9">
-        <v>1.378595101095022</v>
+        <v>1.3785951010950219</v>
       </c>
       <c r="E9">
-        <v>0.07214763795046197</v>
+        <v>7.2147637950461974E-2</v>
       </c>
       <c r="F9">
-        <v>0.3135485387683591</v>
+        <v>0.31354853876835909</v>
       </c>
       <c r="G9">
-        <v>1.502597882210447</v>
+        <v>1.5025978822104471</v>
       </c>
       <c r="H9">
-        <v>-0.4028749759215554</v>
+        <v>-0.40287497592155541</v>
       </c>
       <c r="I9">
-        <v>0.0002170750959871694</v>
+        <v>2.1707509598716939E-4</v>
       </c>
       <c r="J9">
         <v>-0.2367605063978471</v>
       </c>
       <c r="K9">
-        <v>-0.2164047692689685</v>
+        <v>-0.21640476926896851</v>
       </c>
       <c r="L9">
-        <v>0.203245537610367</v>
+        <v>0.20324553761036701</v>
       </c>
       <c r="M9">
-        <v>0.7091724762995766</v>
+        <v>0.70917247629957658</v>
       </c>
       <c r="N9">
-        <v>-0.04825376552380921</v>
+        <v>-4.8253765523809208E-2</v>
       </c>
       <c r="O9">
-        <v>0.773424368326848</v>
+        <v>0.77342436832684802</v>
       </c>
       <c r="P9">
         <v>0.180498812272293</v>
       </c>
       <c r="Q9">
-        <v>-0.1247099681584121</v>
+        <v>-0.12470996815841209</v>
       </c>
       <c r="R9">
-        <v>0.2382895340118195</v>
+        <v>0.23828953401181949</v>
       </c>
       <c r="S9">
-        <v>0.5593138238744177</v>
+        <v>0.55931382387441775</v>
       </c>
       <c r="T9">
-        <v>-0.04643358970671894</v>
+        <v>-4.6433589706718938E-2</v>
       </c>
       <c r="U9">
-        <v>0.2209261276816483</v>
+        <v>0.22092612768164829</v>
       </c>
       <c r="V9">
-        <v>-0.4545572535366912</v>
+        <v>-0.45455725353669119</v>
       </c>
       <c r="W9">
-        <v>0.6280101390387831</v>
+        <v>0.62801013903878311</v>
       </c>
       <c r="X9">
-        <v>0.2083395445525233</v>
+        <v>0.20833954455252329</v>
       </c>
       <c r="Y9">
-        <v>-0.04774764144918564</v>
+        <v>-4.774764144918564E-2</v>
       </c>
       <c r="Z9">
         <v>0.5913390088088476</v>
       </c>
       <c r="AA9">
-        <v>0.4040668633490255</v>
+        <v>0.40406686334902547</v>
       </c>
       <c r="AB9">
-        <v>0.2857459159919237</v>
+        <v>0.28574591599192373</v>
       </c>
       <c r="AC9">
-        <v>-0.8725203407136998</v>
+        <v>-0.87252034071369977</v>
       </c>
       <c r="AD9">
-        <v>0.1710722246802905</v>
+        <v>0.17107222468029051</v>
       </c>
       <c r="AE9">
-        <v>0.4307820675947324</v>
+        <v>0.43078206759473242</v>
       </c>
       <c r="AF9">
-        <v>-0.0646650485257885</v>
+        <v>-6.4665048525788499E-2</v>
       </c>
       <c r="AG9">
-        <v>0.3418574770320582</v>
+        <v>0.34185747703205821</v>
       </c>
       <c r="AH9">
-        <v>0.4871385124387805</v>
+        <v>0.48713851243878048</v>
       </c>
       <c r="AI9">
-        <v>0.8089691558800288</v>
+        <v>0.80896915588002882</v>
       </c>
       <c r="AJ9">
-        <v>-0.1690818879170858</v>
+        <v>-0.16908188791708581</v>
       </c>
       <c r="AK9">
         <v>-0.1812864259045735</v>
       </c>
       <c r="AL9">
-        <v>-0.02260313711105523</v>
+        <v>-2.260313711105523E-2</v>
       </c>
       <c r="AM9">
-        <v>0.6981855440225164</v>
+        <v>0.69818554402251642</v>
       </c>
       <c r="AN9">
-        <v>1.273919339574647</v>
+        <v>1.2739193395746471</v>
       </c>
       <c r="AO9">
         <v>0.477192148214859</v>
       </c>
       <c r="AP9">
-        <v>-0.2056918774251877</v>
+        <v>-0.20569187742518771</v>
       </c>
       <c r="AQ9">
-        <v>0.09363555057088037</v>
+        <v>9.3635550570880369E-2</v>
       </c>
       <c r="AR9">
-        <v>0.2062834214040689</v>
+        <v>0.20628342140406891</v>
       </c>
       <c r="AS9">
-        <v>0.948869595569125</v>
+        <v>0.94886959556912498</v>
       </c>
       <c r="AT9">
-        <v>0.004580260300339927</v>
+        <v>4.5802603003399266E-3</v>
       </c>
       <c r="AU9">
-        <v>0.2601132238221361</v>
+        <v>0.26011322382213609</v>
       </c>
       <c r="AV9">
-        <v>0.5772510512749195</v>
+        <v>0.57725105127491949</v>
       </c>
       <c r="AW9">
-        <v>0.7139934213972086</v>
+        <v>0.71399342139720856</v>
       </c>
       <c r="AX9">
-        <v>0.1564374687325374</v>
+        <v>0.15643746873253739</v>
       </c>
       <c r="AY9">
-        <v>0.7010251323313703</v>
+        <v>0.70102513233137032</v>
       </c>
       <c r="AZ9">
-        <v>0.4129459784948766</v>
+        <v>0.41294597849487658</v>
       </c>
       <c r="BA9">
-        <v>0.3358895213009891</v>
+        <v>0.33588952130098909</v>
       </c>
       <c r="BB9">
-        <v>0.3549062319177048</v>
+        <v>0.35490623191770482</v>
       </c>
       <c r="BC9">
-        <v>0.1414547302382003</v>
+        <v>0.14145473023820029</v>
       </c>
       <c r="BD9">
-        <v>-0.1394584007569871</v>
+        <v>-0.13945840075698709</v>
       </c>
       <c r="BE9">
-        <v>-0.2760901488798281</v>
+        <v>-0.27609014887982808</v>
       </c>
       <c r="BF9">
-        <v>0.5362953182085985</v>
+        <v>0.53629531820859855</v>
       </c>
       <c r="BG9">
-        <v>0.8691137559232874</v>
+        <v>0.86911375592328743</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
-      <c r="A10" s="1">
-        <v>8</v>
+    <row r="10" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B10">
-        <v>-0.3959819931313518</v>
+        <v>-0.39598199313135179</v>
       </c>
       <c r="C10">
-        <v>0.6057189235049542</v>
+        <v>0.60571892350495415</v>
       </c>
       <c r="D10">
-        <v>0.631004395399996</v>
+        <v>0.63100439539999598</v>
       </c>
       <c r="E10">
-        <v>0.6277510309259833</v>
+        <v>0.62775103092598328</v>
       </c>
       <c r="F10">
-        <v>0.3094644350173842</v>
+        <v>0.30946443501738419</v>
       </c>
       <c r="G10">
         <v>0.107682362204621</v>
       </c>
       <c r="H10">
-        <v>0.03742562669724476</v>
+        <v>3.7425626697244758E-2</v>
       </c>
       <c r="I10">
-        <v>0.4622873161560994</v>
+        <v>0.46228731615609941</v>
       </c>
       <c r="J10">
-        <v>-0.1989292076634918</v>
+        <v>-0.19892920766349181</v>
       </c>
       <c r="K10">
-        <v>0.8239282487681396</v>
+        <v>0.82392824876813964</v>
       </c>
       <c r="L10">
-        <v>-0.2109265289463733</v>
+        <v>-0.21092652894637329</v>
       </c>
       <c r="M10">
-        <v>0.409327481562023</v>
+        <v>0.40932748156202298</v>
       </c>
       <c r="N10">
-        <v>-0.644653919844192</v>
+        <v>-0.64465391984419196</v>
       </c>
       <c r="O10">
-        <v>0.4437503854162173</v>
+        <v>0.44375038541621731</v>
       </c>
       <c r="P10">
-        <v>-0.02002563581253831</v>
+        <v>-2.0025635812538311E-2</v>
       </c>
       <c r="Q10">
-        <v>0.1672584105770661</v>
+        <v>0.16725841057706611</v>
       </c>
       <c r="R10">
-        <v>0.8190543473045788</v>
+        <v>0.81905434730457882</v>
       </c>
       <c r="S10">
-        <v>0.3089505050969373</v>
+        <v>0.30895050509693728</v>
       </c>
       <c r="T10">
-        <v>0.3860866311051541</v>
+        <v>0.38608663110515412</v>
       </c>
       <c r="U10">
-        <v>0.3173406443161846</v>
+        <v>0.31734064431618458</v>
       </c>
       <c r="V10">
-        <v>-0.2360229575218273</v>
+        <v>-0.23602295752182731</v>
       </c>
       <c r="W10">
         <v>0.1705798491633696</v>
       </c>
       <c r="X10">
-        <v>0.06325276101358511</v>
+        <v>6.325276101358511E-2</v>
       </c>
       <c r="Y10">
-        <v>0.5086855947444427</v>
+        <v>0.50868559474444275</v>
       </c>
       <c r="Z10">
         <v>0.6917737778336942</v>
@@ -2063,64 +2338,64 @@
         <v>1.016813223694188</v>
       </c>
       <c r="AB10">
-        <v>0.4781833184984752</v>
+        <v>0.47818331849847517</v>
       </c>
       <c r="AC10">
-        <v>-0.6892992224503393</v>
+        <v>-0.68929922245033926</v>
       </c>
       <c r="AD10">
         <v>-0.1229299629653005</v>
       </c>
       <c r="AE10">
-        <v>-0.09435988310212368</v>
+        <v>-9.4359883102123676E-2</v>
       </c>
       <c r="AF10">
-        <v>-0.03636026826965235</v>
+        <v>-3.636026826965235E-2</v>
       </c>
       <c r="AG10">
-        <v>0.2160634722500061</v>
+        <v>0.21606347225000611</v>
       </c>
       <c r="AH10">
-        <v>0.4272192531776062</v>
+        <v>0.42721925317760617</v>
       </c>
       <c r="AI10">
-        <v>0.253360431228244</v>
+        <v>0.25336043122824398</v>
       </c>
       <c r="AJ10">
-        <v>0.3675364557947736</v>
+        <v>0.36753645579477362</v>
       </c>
       <c r="AK10">
-        <v>0.5748945474638946</v>
+        <v>0.57489454746389457</v>
       </c>
       <c r="AL10">
         <v>0.3789005394370778</v>
       </c>
       <c r="AM10">
-        <v>0.9494522758807007</v>
+        <v>0.94945227588070069</v>
       </c>
       <c r="AN10">
-        <v>0.5831765937687601</v>
+        <v>0.58317659376876008</v>
       </c>
       <c r="AO10">
-        <v>0.852375688449502</v>
+        <v>0.85237568844950196</v>
       </c>
       <c r="AP10">
-        <v>0.3757563753054159</v>
+        <v>0.37575637530541589</v>
       </c>
       <c r="AQ10">
-        <v>-0.8350198663646641</v>
+        <v>-0.83501986636466408</v>
       </c>
       <c r="AR10">
         <v>0.1083652441985939</v>
       </c>
       <c r="AS10">
-        <v>1.441139560707066</v>
+        <v>1.4411395607070661</v>
       </c>
       <c r="AT10">
-        <v>0.3103460011890367</v>
+        <v>0.31034600118903671</v>
       </c>
       <c r="AU10">
-        <v>0.07316762329914689</v>
+        <v>7.3167623299146889E-2</v>
       </c>
       <c r="AV10">
         <v>0.4336781523536099</v>
@@ -2132,153 +2407,153 @@
         <v>-0.2838467330668869</v>
       </c>
       <c r="AY10">
-        <v>-0.2295609037641161</v>
+        <v>-0.22956090376411609</v>
       </c>
       <c r="AZ10">
-        <v>-0.3551716614628584</v>
+        <v>-0.35517166146285839</v>
       </c>
       <c r="BA10">
-        <v>0.4483002067333882</v>
+        <v>0.44830020673338822</v>
       </c>
       <c r="BB10">
-        <v>0.9463782852429066</v>
+        <v>0.94637828524290657</v>
       </c>
       <c r="BC10">
-        <v>0.2503801021409041</v>
+        <v>0.25038010214090411</v>
       </c>
       <c r="BD10">
-        <v>0.606616458551355</v>
+        <v>0.60661645855135504</v>
       </c>
       <c r="BE10">
-        <v>0.4037239770570288</v>
+        <v>0.40372397705702878</v>
       </c>
       <c r="BF10">
-        <v>0.01746724107123463</v>
+        <v>1.7467241071234631E-2</v>
       </c>
       <c r="BG10">
-        <v>0.4573271597862977</v>
+        <v>0.45732715978629768</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
-      <c r="A11" s="1">
-        <v>9</v>
+    <row r="11" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B11">
-        <v>0.7702475060532776</v>
+        <v>0.77024750605327763</v>
       </c>
       <c r="C11">
-        <v>0.5638326902184023</v>
+        <v>0.56383269021840232</v>
       </c>
       <c r="D11">
-        <v>0.5233636420286448</v>
+        <v>0.52336364202864483</v>
       </c>
       <c r="E11">
-        <v>0.2923715474882991</v>
+        <v>0.29237154748829908</v>
       </c>
       <c r="F11">
-        <v>0.1620159089715338</v>
+        <v>0.16201590897153381</v>
       </c>
       <c r="G11">
-        <v>0.04787460340931154</v>
+        <v>4.7874603409311538E-2</v>
       </c>
       <c r="H11">
-        <v>0.2554380940491526</v>
+        <v>0.25543809404915258</v>
       </c>
       <c r="I11">
-        <v>-0.2192879265412137</v>
+        <v>-0.21928792654121371</v>
       </c>
       <c r="J11">
-        <v>0.3231341499148794</v>
+        <v>0.32313414991487938</v>
       </c>
       <c r="K11">
-        <v>0.4573268564223342</v>
+        <v>0.45732685642233423</v>
       </c>
       <c r="L11">
-        <v>0.0477170956385711</v>
+        <v>4.77170956385711E-2</v>
       </c>
       <c r="M11">
-        <v>0.7387023208854551</v>
+        <v>0.73870232088545507</v>
       </c>
       <c r="N11">
-        <v>0.6788417457420267</v>
+        <v>0.67884174574202671</v>
       </c>
       <c r="O11">
-        <v>-0.1435723542009877</v>
+        <v>-0.14357235420098771</v>
       </c>
       <c r="P11">
         <v>-0.1481250745752542</v>
       </c>
       <c r="Q11">
-        <v>-0.2392720784004952</v>
+        <v>-0.23927207840049519</v>
       </c>
       <c r="R11">
-        <v>0.5928904657643359</v>
+        <v>0.59289046576433591</v>
       </c>
       <c r="S11">
-        <v>0.5302690362158752</v>
+        <v>0.53026903621587518</v>
       </c>
       <c r="T11">
-        <v>-0.3687132365449501</v>
+        <v>-0.36871323654495008</v>
       </c>
       <c r="U11">
-        <v>0.493052601090345</v>
+        <v>0.49305260109034499</v>
       </c>
       <c r="V11">
-        <v>-0.03155724820669985</v>
+        <v>-3.1557248206699848E-2</v>
       </c>
       <c r="W11">
         <v>0.5612192800163166</v>
       </c>
       <c r="X11">
-        <v>0.08064041554504657</v>
+        <v>8.064041554504657E-2</v>
       </c>
       <c r="Y11">
-        <v>-0.01294133565052592</v>
+        <v>-1.294133565052592E-2</v>
       </c>
       <c r="Z11">
-        <v>0.587847815989503</v>
+        <v>0.58784781598950298</v>
       </c>
       <c r="AA11">
-        <v>1.140749452655578</v>
+        <v>1.1407494526555779</v>
       </c>
       <c r="AB11">
         <v>0.837552197064513</v>
       </c>
       <c r="AC11">
-        <v>-0.07883620855979151</v>
+        <v>-7.883620855979151E-2</v>
       </c>
       <c r="AD11">
         <v>1.313620353820879</v>
       </c>
       <c r="AE11">
-        <v>-0.3761806027238221</v>
+        <v>-0.37618060272382209</v>
       </c>
       <c r="AF11">
-        <v>0.2916085279585244</v>
+        <v>0.29160852795852438</v>
       </c>
       <c r="AG11">
-        <v>0.6255464940353337</v>
+        <v>0.62554649403533369</v>
       </c>
       <c r="AH11">
-        <v>0.1282844691086225</v>
+        <v>0.12828446910862251</v>
       </c>
       <c r="AI11">
         <v>1.265131716855922</v>
       </c>
       <c r="AJ11">
-        <v>-0.0004143303659075202</v>
+        <v>-4.1433036590752018E-4</v>
       </c>
       <c r="AK11">
-        <v>0.07290538590544335</v>
+        <v>7.2905385905443348E-2</v>
       </c>
       <c r="AL11">
-        <v>0.5216851904831112</v>
+        <v>0.52168519048311124</v>
       </c>
       <c r="AM11">
-        <v>0.7174272512665459</v>
+        <v>0.71742725126654594</v>
       </c>
       <c r="AN11">
-        <v>0.134036068416971</v>
+        <v>0.13403606841697099</v>
       </c>
       <c r="AO11">
         <v>0.1213070006055343</v>
@@ -2287,25 +2562,25 @@
         <v>-0.1384494823280675</v>
       </c>
       <c r="AQ11">
-        <v>-0.3567178549765916</v>
+        <v>-0.35671785497659159</v>
       </c>
       <c r="AR11">
-        <v>0.1817677610000907</v>
+        <v>0.18176776100009071</v>
       </c>
       <c r="AS11">
-        <v>0.3530475620919662</v>
+        <v>0.35304756209196619</v>
       </c>
       <c r="AT11">
-        <v>0.4035456401777334</v>
+        <v>0.40354564017773342</v>
       </c>
       <c r="AU11">
-        <v>0.9836893722960131</v>
+        <v>0.98368937229601305</v>
       </c>
       <c r="AV11">
-        <v>1.518993288730592</v>
+        <v>1.5189932887305919</v>
       </c>
       <c r="AW11">
-        <v>0.2601087835878658</v>
+        <v>0.26010878358786582</v>
       </c>
       <c r="AX11">
         <v>0.691627558340702</v>
@@ -2314,28 +2589,28 @@
         <v>0.7820569055023695</v>
       </c>
       <c r="AZ11">
-        <v>-0.4428899468665745</v>
+        <v>-0.44288994686657451</v>
       </c>
       <c r="BA11">
-        <v>-0.08626391805779995</v>
+        <v>-8.6263918057799954E-2</v>
       </c>
       <c r="BB11">
-        <v>0.9684070647843038</v>
+        <v>0.96840706478430383</v>
       </c>
       <c r="BC11">
-        <v>-0.1286692316848922</v>
+        <v>-0.12866923168489219</v>
       </c>
       <c r="BD11">
-        <v>0.2583273085501404</v>
+        <v>0.25832730855014041</v>
       </c>
       <c r="BE11">
-        <v>-0.4671590357422706</v>
+        <v>-0.46715903574227058</v>
       </c>
       <c r="BF11">
-        <v>0.9495445670971352</v>
+        <v>0.94954456709713519</v>
       </c>
       <c r="BG11">
-        <v>0.4589909342900574</v>
+        <v>0.45899093429005738</v>
       </c>
     </row>
   </sheetData>
